--- a/results/5min/medium_window_30days.xlsx
+++ b/results/5min/medium_window_30days.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,15 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>y_score</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>confidence</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>x_number_of_days_before_delivery</t>
         </is>
@@ -482,9 +487,12 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9790891148149967</v>
+        <v>0.001244136248715222</v>
       </c>
       <c r="G2" t="n">
+        <v>0.9987558637512848</v>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -505,9 +513,12 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.978543845936656</v>
+        <v>0.01827923394739628</v>
       </c>
       <c r="G3" t="n">
+        <v>0.9817207660526037</v>
+      </c>
+      <c r="H3" t="n">
         <v>23</v>
       </c>
     </row>
@@ -528,9 +539,12 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9293141961097717</v>
+        <v>0.0005084152217023075</v>
       </c>
       <c r="G4" t="n">
+        <v>0.9994915847782977</v>
+      </c>
+      <c r="H4" t="n">
         <v>11</v>
       </c>
     </row>
@@ -551,9 +565,12 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.530281126499176</v>
+        <v>0.001411573961377144</v>
       </c>
       <c r="G5" t="n">
+        <v>0.9985884260386229</v>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -574,9 +591,12 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8782806396484375</v>
+        <v>0.0006137851160019636</v>
       </c>
       <c r="G6" t="n">
+        <v>0.999386214883998</v>
+      </c>
+      <c r="H6" t="n">
         <v>34</v>
       </c>
     </row>
@@ -597,9 +617,12 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9587819799780846</v>
+        <v>0.0003216539043933153</v>
       </c>
       <c r="G7" t="n">
+        <v>0.9996783460956067</v>
+      </c>
+      <c r="H7" t="n">
         <v>27</v>
       </c>
     </row>
@@ -620,9 +643,12 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9710250776261091</v>
+        <v>0.001261791330762208</v>
       </c>
       <c r="G8" t="n">
+        <v>0.9987382086692378</v>
+      </c>
+      <c r="H8" t="n">
         <v>19</v>
       </c>
     </row>
@@ -643,9 +669,12 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9826733767986298</v>
+        <v>0.01233326550573111</v>
       </c>
       <c r="G9" t="n">
+        <v>0.9876667344942689</v>
+      </c>
+      <c r="H9" t="n">
         <v>23</v>
       </c>
     </row>
@@ -666,9 +695,12 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.888627864420414</v>
+        <v>0.006630654912441969</v>
       </c>
       <c r="G10" t="n">
+        <v>0.993369345087558</v>
+      </c>
+      <c r="H10" t="n">
         <v>6</v>
       </c>
     </row>
@@ -689,9 +721,12 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9371506571769714</v>
+        <v>0.0006942074978724122</v>
       </c>
       <c r="G11" t="n">
+        <v>0.9993057925021276</v>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -712,9 +747,12 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7954157292842865</v>
+        <v>0.2623640298843384</v>
       </c>
       <c r="G12" t="n">
+        <v>0.7376359701156616</v>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>
@@ -735,9 +773,12 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9350223764777184</v>
+        <v>0.00343019375577569</v>
       </c>
       <c r="G13" t="n">
+        <v>0.9965698062442243</v>
+      </c>
+      <c r="H13" t="n">
         <v>26</v>
       </c>
     </row>
@@ -758,9 +799,12 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9255466759204865</v>
+        <v>0.002919428749009967</v>
       </c>
       <c r="G14" t="n">
+        <v>0.99708057125099</v>
+      </c>
+      <c r="H14" t="n">
         <v>24</v>
       </c>
     </row>
@@ -781,9 +825,12 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8746505826711655</v>
+        <v>0.002161704702302814</v>
       </c>
       <c r="G15" t="n">
+        <v>0.9978382952976972</v>
+      </c>
+      <c r="H15" t="n">
         <v>17</v>
       </c>
     </row>
@@ -804,9 +851,12 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9890393326058984</v>
+        <v>0.002621307503432035</v>
       </c>
       <c r="G16" t="n">
+        <v>0.997378692496568</v>
+      </c>
+      <c r="H16" t="n">
         <v>7</v>
       </c>
     </row>
@@ -827,9 +877,12 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9463385865092278</v>
+        <v>0.004194580484181643</v>
       </c>
       <c r="G17" t="n">
+        <v>0.9958054195158184</v>
+      </c>
+      <c r="H17" t="n">
         <v>6</v>
       </c>
     </row>
@@ -850,9 +903,12 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9706583451479673</v>
+        <v>0.002513601444661617</v>
       </c>
       <c r="G18" t="n">
+        <v>0.9974863985553384</v>
+      </c>
+      <c r="H18" t="n">
         <v>29</v>
       </c>
     </row>
@@ -873,9 +929,12 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.969671780243516</v>
+        <v>0.01632856577634811</v>
       </c>
       <c r="G19" t="n">
+        <v>0.9836714342236519</v>
+      </c>
+      <c r="H19" t="n">
         <v>19</v>
       </c>
     </row>
@@ -896,9 +955,12 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.85477215051651</v>
+        <v>0.004071015398949385</v>
       </c>
       <c r="G20" t="n">
+        <v>0.9959289846010506</v>
+      </c>
+      <c r="H20" t="n">
         <v>31</v>
       </c>
     </row>
@@ -919,9 +981,12 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9470721855759621</v>
+        <v>0.007054162677377462</v>
       </c>
       <c r="G21" t="n">
+        <v>0.9929458373226225</v>
+      </c>
+      <c r="H21" t="n">
         <v>26</v>
       </c>
     </row>
@@ -942,9 +1007,12 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.955214835703373</v>
+        <v>0.003145825117826462</v>
       </c>
       <c r="G22" t="n">
+        <v>0.9968541748821735</v>
+      </c>
+      <c r="H22" t="n">
         <v>11</v>
       </c>
     </row>
@@ -965,9 +1033,12 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9147313609719276</v>
+        <v>5.025656264479039e-07</v>
       </c>
       <c r="G23" t="n">
+        <v>0.9999994974343736</v>
+      </c>
+      <c r="H23" t="n">
         <v>10</v>
       </c>
     </row>
@@ -988,9 +1059,12 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9827784933149815</v>
+        <v>0.02387807331979275</v>
       </c>
       <c r="G24" t="n">
+        <v>0.9761219266802073</v>
+      </c>
+      <c r="H24" t="n">
         <v>27</v>
       </c>
     </row>
@@ -1011,9 +1085,12 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9403285942971706</v>
+        <v>0.01484624668955803</v>
       </c>
       <c r="G25" t="n">
+        <v>0.985153753310442</v>
+      </c>
+      <c r="H25" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1034,9 +1111,12 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9395303875207901</v>
+        <v>0.005959599744528532</v>
       </c>
       <c r="G26" t="n">
+        <v>0.9940404002554715</v>
+      </c>
+      <c r="H26" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1057,9 +1137,12 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8872484117746353</v>
+        <v>0.0006059937295503914</v>
       </c>
       <c r="G27" t="n">
+        <v>0.9993940062704496</v>
+      </c>
+      <c r="H27" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1080,9 +1163,12 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9093775972723961</v>
+        <v>0.000499943271279335</v>
       </c>
       <c r="G28" t="n">
+        <v>0.9995000567287207</v>
+      </c>
+      <c r="H28" t="n">
         <v>31</v>
       </c>
     </row>
@@ -1103,9 +1189,12 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9973904490470886</v>
+        <v>0.9970732927322388</v>
       </c>
       <c r="G29" t="n">
+        <v>0.9970732927322388</v>
+      </c>
+      <c r="H29" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1126,9 +1215,12 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8229057192802429</v>
+        <v>0.6114521622657776</v>
       </c>
       <c r="G30" t="n">
+        <v>0.6114521622657776</v>
+      </c>
+      <c r="H30" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1149,9 +1241,12 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9858129620552063</v>
+        <v>0.9987063407897949</v>
       </c>
       <c r="G31" t="n">
+        <v>0.9987063407897949</v>
+      </c>
+      <c r="H31" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1172,9 +1267,12 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9615898728370667</v>
+        <v>0.9999508857727051</v>
       </c>
       <c r="G32" t="n">
+        <v>0.9999508857727051</v>
+      </c>
+      <c r="H32" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1195,9 +1293,12 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9669601917266846</v>
+        <v>0.9921074509620667</v>
       </c>
       <c r="G33" t="n">
+        <v>0.9921074509620667</v>
+      </c>
+      <c r="H33" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1218,9 +1319,12 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9918200969696045</v>
+        <v>0.9997499585151672</v>
       </c>
       <c r="G34" t="n">
+        <v>0.9997499585151672</v>
+      </c>
+      <c r="H34" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1241,9 +1345,12 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9775574207305908</v>
+        <v>0.9998993873596191</v>
       </c>
       <c r="G35" t="n">
+        <v>0.9998993873596191</v>
+      </c>
+      <c r="H35" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1264,9 +1371,12 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9706121683120728</v>
+        <v>0.9998657703399658</v>
       </c>
       <c r="G36" t="n">
+        <v>0.9998657703399658</v>
+      </c>
+      <c r="H36" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1287,9 +1397,12 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9963957667350769</v>
+        <v>0.9994227886199951</v>
       </c>
       <c r="G37" t="n">
+        <v>0.9994227886199951</v>
+      </c>
+      <c r="H37" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1310,9 +1423,12 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9598165154457092</v>
+        <v>0.9989756345748901</v>
       </c>
       <c r="G38" t="n">
+        <v>0.9989756345748901</v>
+      </c>
+      <c r="H38" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1333,9 +1449,12 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9621118307113647</v>
+        <v>0.9929210543632507</v>
       </c>
       <c r="G39" t="n">
+        <v>0.9929210543632507</v>
+      </c>
+      <c r="H39" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1356,9 +1475,12 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9109330177307129</v>
+        <v>0.9998082518577576</v>
       </c>
       <c r="G40" t="n">
+        <v>0.9998082518577576</v>
+      </c>
+      <c r="H40" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1379,9 +1501,12 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9692049026489258</v>
+        <v>0.9974191188812256</v>
       </c>
       <c r="G41" t="n">
+        <v>0.9974191188812256</v>
+      </c>
+      <c r="H41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1402,9 +1527,12 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9961339235305786</v>
+        <v>0.9385754466056824</v>
       </c>
       <c r="G42" t="n">
+        <v>0.9385754466056824</v>
+      </c>
+      <c r="H42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1425,9 +1553,12 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.617415726184845</v>
+        <v>0.9991691112518311</v>
       </c>
       <c r="G43" t="n">
+        <v>0.9991691112518311</v>
+      </c>
+      <c r="H43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1448,9 +1579,12 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8424564003944397</v>
+        <v>0.9868322610855103</v>
       </c>
       <c r="G44" t="n">
+        <v>0.9868322610855103</v>
+      </c>
+      <c r="H44" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1471,9 +1605,12 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9888255000114441</v>
+        <v>0.9997486472129822</v>
       </c>
       <c r="G45" t="n">
+        <v>0.9997486472129822</v>
+      </c>
+      <c r="H45" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1494,9 +1631,12 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9746469855308533</v>
+        <v>0.9984428286552429</v>
       </c>
       <c r="G46" t="n">
+        <v>0.9984428286552429</v>
+      </c>
+      <c r="H46" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1517,9 +1657,12 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9307226538658142</v>
+        <v>0.6295984983444214</v>
       </c>
       <c r="G47" t="n">
+        <v>0.6295984983444214</v>
+      </c>
+      <c r="H47" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1540,9 +1683,12 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9894121289253235</v>
+        <v>0.9629652500152588</v>
       </c>
       <c r="G48" t="n">
+        <v>0.9629652500152588</v>
+      </c>
+      <c r="H48" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1563,9 +1709,12 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8404642939567566</v>
+        <v>0.9947389960289001</v>
       </c>
       <c r="G49" t="n">
+        <v>0.9947389960289001</v>
+      </c>
+      <c r="H49" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1586,9 +1735,12 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9598029851913452</v>
+        <v>0.9998065829277039</v>
       </c>
       <c r="G50" t="n">
+        <v>0.9998065829277039</v>
+      </c>
+      <c r="H50" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1609,9 +1761,12 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.99220871925354</v>
+        <v>0.9998738765716553</v>
       </c>
       <c r="G51" t="n">
+        <v>0.9998738765716553</v>
+      </c>
+      <c r="H51" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1632,9 +1787,12 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9994463324546814</v>
+        <v>0.9997966885566711</v>
       </c>
       <c r="G52" t="n">
+        <v>0.9997966885566711</v>
+      </c>
+      <c r="H52" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1655,9 +1813,12 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.852593719959259</v>
+        <v>0.9731157422065735</v>
       </c>
       <c r="G53" t="n">
+        <v>0.9731157422065735</v>
+      </c>
+      <c r="H53" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1678,9 +1839,12 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9929748773574829</v>
+        <v>0.9955299496650696</v>
       </c>
       <c r="G54" t="n">
+        <v>0.9955299496650696</v>
+      </c>
+      <c r="H54" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1701,9 +1865,12 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.971216082572937</v>
+        <v>0.9923610091209412</v>
       </c>
       <c r="G55" t="n">
+        <v>0.9923610091209412</v>
+      </c>
+      <c r="H55" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1724,9 +1891,12 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9310141801834106</v>
+        <v>0.9913833141326904</v>
       </c>
       <c r="G56" t="n">
+        <v>0.9913833141326904</v>
+      </c>
+      <c r="H56" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1747,9 +1917,12 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9195027351379395</v>
+        <v>0.929678201675415</v>
       </c>
       <c r="G57" t="n">
+        <v>0.929678201675415</v>
+      </c>
+      <c r="H57" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1770,9 +1943,12 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9872200489044189</v>
+        <v>0.9992840886116028</v>
       </c>
       <c r="G58" t="n">
+        <v>0.9992840886116028</v>
+      </c>
+      <c r="H58" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1793,9 +1969,12 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8837301731109619</v>
+        <v>0.9902068972587585</v>
       </c>
       <c r="G59" t="n">
+        <v>0.9902068972587585</v>
+      </c>
+      <c r="H59" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1816,9 +1995,12 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.915732741355896</v>
+        <v>0.9731324315071106</v>
       </c>
       <c r="G60" t="n">
+        <v>0.9731324315071106</v>
+      </c>
+      <c r="H60" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1839,9 +2021,12 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9394072294235229</v>
+        <v>0.999870777130127</v>
       </c>
       <c r="G61" t="n">
+        <v>0.999870777130127</v>
+      </c>
+      <c r="H61" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1856,15 +2041,18 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5873510241508484</v>
+        <v>0.9959279894828796</v>
       </c>
       <c r="G62" t="n">
+        <v>0.9959279894828796</v>
+      </c>
+      <c r="H62" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1885,9 +2073,12 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9825284481048584</v>
+        <v>0.8580730557441711</v>
       </c>
       <c r="G63" t="n">
+        <v>0.8580730557441711</v>
+      </c>
+      <c r="H63" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1908,9 +2099,12 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9916287660598755</v>
+        <v>0.9948747754096985</v>
       </c>
       <c r="G64" t="n">
+        <v>0.9948747754096985</v>
+      </c>
+      <c r="H64" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1931,9 +2125,12 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9891946315765381</v>
+        <v>0.9956320524215698</v>
       </c>
       <c r="G65" t="n">
+        <v>0.9956320524215698</v>
+      </c>
+      <c r="H65" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1954,9 +2151,12 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9897633790969849</v>
+        <v>0.9997512698173523</v>
       </c>
       <c r="G66" t="n">
+        <v>0.9997512698173523</v>
+      </c>
+      <c r="H66" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1977,9 +2177,12 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9868690371513367</v>
+        <v>0.9854986667633057</v>
       </c>
       <c r="G67" t="n">
+        <v>0.9854986667633057</v>
+      </c>
+      <c r="H67" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2000,9 +2203,12 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9617459774017334</v>
+        <v>0.9991555213928223</v>
       </c>
       <c r="G68" t="n">
+        <v>0.9991555213928223</v>
+      </c>
+      <c r="H68" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2023,9 +2229,12 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9949665665626526</v>
+        <v>0.9996275901794434</v>
       </c>
       <c r="G69" t="n">
+        <v>0.9996275901794434</v>
+      </c>
+      <c r="H69" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2046,9 +2255,12 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8959575891494751</v>
+        <v>0.9906893968582153</v>
       </c>
       <c r="G70" t="n">
+        <v>0.9906893968582153</v>
+      </c>
+      <c r="H70" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2069,9 +2281,12 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9626712799072266</v>
+        <v>0.999828577041626</v>
       </c>
       <c r="G71" t="n">
+        <v>0.999828577041626</v>
+      </c>
+      <c r="H71" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2092,9 +2307,12 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9772950410842896</v>
+        <v>0.9966711401939392</v>
       </c>
       <c r="G72" t="n">
+        <v>0.9966711401939392</v>
+      </c>
+      <c r="H72" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2115,9 +2333,12 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.828271746635437</v>
+        <v>0.9918549060821533</v>
       </c>
       <c r="G73" t="n">
+        <v>0.9918549060821533</v>
+      </c>
+      <c r="H73" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2138,9 +2359,12 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9668803811073303</v>
+        <v>0.9987987279891968</v>
       </c>
       <c r="G74" t="n">
+        <v>0.9987987279891968</v>
+      </c>
+      <c r="H74" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2161,9 +2385,12 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9772114753723145</v>
+        <v>0.9998539686203003</v>
       </c>
       <c r="G75" t="n">
+        <v>0.9998539686203003</v>
+      </c>
+      <c r="H75" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2184,9 +2411,12 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9867842197418213</v>
+        <v>0.9547905921936035</v>
       </c>
       <c r="G76" t="n">
+        <v>0.9547905921936035</v>
+      </c>
+      <c r="H76" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2207,9 +2437,12 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8368122577667236</v>
+        <v>0.6017349362373352</v>
       </c>
       <c r="G77" t="n">
+        <v>0.6017349362373352</v>
+      </c>
+      <c r="H77" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2230,9 +2463,12 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9228144884109497</v>
+        <v>0.999630331993103</v>
       </c>
       <c r="G78" t="n">
+        <v>0.999630331993103</v>
+      </c>
+      <c r="H78" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2253,9 +2489,12 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9939268231391907</v>
+        <v>0.9993956089019775</v>
       </c>
       <c r="G79" t="n">
+        <v>0.9993956089019775</v>
+      </c>
+      <c r="H79" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2276,9 +2515,12 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9675955176353455</v>
+        <v>0.8960680365562439</v>
       </c>
       <c r="G80" t="n">
+        <v>0.8960680365562439</v>
+      </c>
+      <c r="H80" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2299,9 +2541,12 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.939287543296814</v>
+        <v>0.777671217918396</v>
       </c>
       <c r="G81" t="n">
+        <v>0.777671217918396</v>
+      </c>
+      <c r="H81" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2322,9 +2567,12 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9866548776626587</v>
+        <v>0.9997172951698303</v>
       </c>
       <c r="G82" t="n">
+        <v>0.9997172951698303</v>
+      </c>
+      <c r="H82" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2345,9 +2593,12 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9542654752731323</v>
+        <v>0.9988293051719666</v>
       </c>
       <c r="G83" t="n">
+        <v>0.9988293051719666</v>
+      </c>
+      <c r="H83" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2368,9 +2619,12 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9943238496780396</v>
+        <v>0.989069938659668</v>
       </c>
       <c r="G84" t="n">
+        <v>0.989069938659668</v>
+      </c>
+      <c r="H84" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2391,9 +2645,12 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.7664655447006226</v>
+        <v>0.9979262351989746</v>
       </c>
       <c r="G85" t="n">
+        <v>0.9979262351989746</v>
+      </c>
+      <c r="H85" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2414,9 +2671,12 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9843181595206261</v>
+        <v>0.01147556211799383</v>
       </c>
       <c r="G86" t="n">
+        <v>0.9885244378820062</v>
+      </c>
+      <c r="H86" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2437,9 +2697,12 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9292109608650208</v>
+        <v>0.9944114089012146</v>
       </c>
       <c r="G87" t="n">
+        <v>0.9944114089012146</v>
+      </c>
+      <c r="H87" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2460,9 +2723,12 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.8671355098485947</v>
+        <v>0.0935232862830162</v>
       </c>
       <c r="G88" t="n">
+        <v>0.9064767137169838</v>
+      </c>
+      <c r="H88" t="n">
         <v>19</v>
       </c>
     </row>
@@ -2483,9 +2749,12 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8814252018928528</v>
+        <v>0.9318553805351257</v>
       </c>
       <c r="G89" t="n">
+        <v>0.9318553805351257</v>
+      </c>
+      <c r="H89" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2500,15 +2769,18 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9370037913322449</v>
+        <v>0.9996815919876099</v>
       </c>
       <c r="G90" t="n">
+        <v>0.9996815919876099</v>
+      </c>
+      <c r="H90" t="n">
         <v>27</v>
       </c>
     </row>
@@ -2523,15 +2795,18 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9335554912686348</v>
+        <v>0.7783882617950439</v>
       </c>
       <c r="G91" t="n">
+        <v>0.7783882617950439</v>
+      </c>
+      <c r="H91" t="n">
         <v>35</v>
       </c>
     </row>
@@ -2552,9 +2827,12 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8734381198883057</v>
+        <v>0.0005955787491984665</v>
       </c>
       <c r="G92" t="n">
+        <v>0.9994044212508015</v>
+      </c>
+      <c r="H92" t="n">
         <v>23</v>
       </c>
     </row>
@@ -2569,15 +2847,18 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.6861372292041779</v>
+        <v>0.95354163646698</v>
       </c>
       <c r="G93" t="n">
+        <v>0.95354163646698</v>
+      </c>
+      <c r="H93" t="n">
         <v>21</v>
       </c>
     </row>
@@ -2598,9 +2879,12 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9856435060501099</v>
+        <v>0.9123469591140747</v>
       </c>
       <c r="G94" t="n">
+        <v>0.9123469591140747</v>
+      </c>
+      <c r="H94" t="n">
         <v>17</v>
       </c>
     </row>
@@ -2615,15 +2899,18 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6812970638275146</v>
+        <v>0.1190241649746895</v>
       </c>
       <c r="G95" t="n">
+        <v>0.8809758350253105</v>
+      </c>
+      <c r="H95" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2638,15 +2925,18 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.721300482749939</v>
+        <v>0.09601520746946335</v>
       </c>
       <c r="G96" t="n">
+        <v>0.9039847925305367</v>
+      </c>
+      <c r="H96" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2661,15 +2951,18 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.8915628790855408</v>
+        <v>0.004992300178855658</v>
       </c>
       <c r="G97" t="n">
+        <v>0.9950076998211443</v>
+      </c>
+      <c r="H97" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2684,15 +2977,18 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5850197374820709</v>
+        <v>0.8467329740524292</v>
       </c>
       <c r="G98" t="n">
+        <v>0.8467329740524292</v>
+      </c>
+      <c r="H98" t="n">
         <v>35</v>
       </c>
     </row>
@@ -2713,9 +3009,12 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.7480299770832062</v>
+        <v>0.1701096594333649</v>
       </c>
       <c r="G99" t="n">
+        <v>0.8298903405666351</v>
+      </c>
+      <c r="H99" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2730,15 +3029,18 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.7865088582038879</v>
+        <v>0.1820315420627594</v>
       </c>
       <c r="G100" t="n">
+        <v>0.8179684579372406</v>
+      </c>
+      <c r="H100" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2759,9 +3061,12 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8399330377578735</v>
+        <v>0.9970830082893372</v>
       </c>
       <c r="G101" t="n">
+        <v>0.9970830082893372</v>
+      </c>
+      <c r="H101" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2776,15 +3081,18 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8221777528524399</v>
+        <v>0.9960066676139832</v>
       </c>
       <c r="G102" t="n">
+        <v>0.9960066676139832</v>
+      </c>
+      <c r="H102" t="n">
         <v>28</v>
       </c>
     </row>
